--- a/01_Input/Manual_Counts/013_Merged.xlsx
+++ b/01_Input/Manual_Counts/013_Merged.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Manual_Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/01_Input/Manual_Counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797E0BC6-7751-4E46-9FBE-46A3B62F4E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{797E0BC6-7751-4E46-9FBE-46A3B62F4E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251C27B9-6E11-4E71-A55E-27B7E30A2250}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,19 +121,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7730DC39-C561-4EC6-BC57-11917AD1C231}" name="Tabelle24" displayName="Tabelle24" ref="A1:J11" totalsRowShown="0">
-  <autoFilter ref="A1:J11" xr:uid="{7730DC39-C561-4EC6-BC57-11917AD1C231}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{608714CE-3709-459D-A89A-5D14CEAB1FA9}" name="Tabelle24" displayName="Tabelle24" ref="A1:J11" totalsRowShown="0">
+  <autoFilter ref="A1:J11" xr:uid="{608714CE-3709-459D-A89A-5D14CEAB1FA9}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6F309764-D4B8-4D74-90FA-9E8DFE249967}" name="Timestamp" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{5B7E6146-42F7-49DA-A171-3F364AD41346}" name="Motorcycle (L) "/>
-    <tableColumn id="3" xr3:uid="{9A457DAA-0C5B-44AE-A297-EBC078800FE5}" name="Motorcycle (S)"/>
-    <tableColumn id="4" xr3:uid="{F6657315-476C-40F7-9EDA-970194E51825}" name="LKW (L) "/>
-    <tableColumn id="5" xr3:uid="{4B9E6DDA-88F8-465B-AAE1-C2B8D40C2E99}" name="LKW (S)"/>
-    <tableColumn id="6" xr3:uid="{273EA667-2218-4CC1-983B-61CD3292C0C9}" name="Transporter (L) "/>
-    <tableColumn id="7" xr3:uid="{5765B706-FDAA-4D33-AB78-73E7A718F87A}" name="Transporter (S)"/>
-    <tableColumn id="10" xr3:uid="{C052EC77-4B52-4EFD-8BB0-155333EAA447}" name="PKW (L) "/>
-    <tableColumn id="11" xr3:uid="{CFD13B32-A188-4CAD-A796-9DAEFC774133}" name="PKW (S)"/>
-    <tableColumn id="12" xr3:uid="{960619FF-CF2A-41A4-92C2-7289B0FDB49F}" name="Bicycle"/>
+    <tableColumn id="1" xr3:uid="{18DFFB96-61A7-4C22-B187-416D72AAE1E0}" name="Timestamp" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3EE8633E-6E63-4B0F-A153-02EA57A28791}" name="Motorcycle (L) "/>
+    <tableColumn id="3" xr3:uid="{F6278938-46B3-4DF2-A7C1-44294830D247}" name="Motorcycle (S)"/>
+    <tableColumn id="4" xr3:uid="{C62D419B-69D4-4461-A759-0AE642B3F304}" name="LKW (L) "/>
+    <tableColumn id="5" xr3:uid="{BE1F8465-1C7F-4F1A-988D-4DB9C66538B0}" name="LKW (S)"/>
+    <tableColumn id="6" xr3:uid="{7561BAA6-739E-473B-A328-7544A915E3D0}" name="Transporter (L) "/>
+    <tableColumn id="7" xr3:uid="{95A93FA5-344E-4C34-963D-B78D2DC8D780}" name="Transporter (S)"/>
+    <tableColumn id="10" xr3:uid="{B3AC46B5-DEE2-42D9-86D0-9454D46A899E}" name="PKW (L) "/>
+    <tableColumn id="11" xr3:uid="{2340E014-E2FF-445A-A2FA-8574DB7D9F18}" name="PKW (S)"/>
+    <tableColumn id="12" xr3:uid="{E0C0B486-75BC-46ED-B181-34CB83D45C5A}" name="Bicycle"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,7 +447,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45268.305555555555</v>
+        <v>45268.3125</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45268.3125</v>
+        <v>45268.319444444445</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45268.319444444445</v>
+        <v>45268.326388888891</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45268.326388888891</v>
+        <v>45268.333333333336</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45268.333333333336</v>
+        <v>45268.340277777781</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45268.340277777781</v>
+        <v>45268.347222222219</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45268.347222222219</v>
+        <v>45268.354166666664</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45268.354166666664</v>
+        <v>45268.361111111109</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45268.361111111109</v>
+        <v>45268.368055555555</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45268.368055555555</v>
+        <v>45268.375</v>
       </c>
       <c r="B11">
         <v>0</v>
